--- a/Documentos/Plan de Trabajo ASN.xlsx
+++ b/Documentos/Plan de Trabajo ASN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollo\ASN\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418B61E0-238C-48C6-AB8F-DE014933126E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F3E01D-2E83-4941-AE10-50AE75A7AB6A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E673171D-683B-4146-8516-79FB6088E25E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
   <si>
     <t>Artefacto</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>ABC Conceptos de Nómina, Montos y %</t>
-  </si>
-  <si>
-    <t>ABC y desactivación de nómina por país</t>
   </si>
   <si>
     <t>5.3.5</t>
@@ -843,6 +840,9 @@
 Se requiere definir los archivos para Data Analysis</t>
   </si>
   <si>
+    <t>5.5.5</t>
+  </si>
+  <si>
     <t>Se requiere definición</t>
   </si>
   <si>
@@ -851,6 +851,30 @@
   <si>
     <t>Definir cuales pantallas se consultarán desde smartphone.
 Aplicar Bootstrap a estas pantallas.</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Confirmar si se requiere un formato de configuración o si se realizará una configuración inicial.</t>
+  </si>
+  <si>
+    <t>5.1.</t>
+  </si>
+  <si>
+    <t>Se requiere definición de layouts.</t>
+  </si>
+  <si>
+    <t>Nomina, Sistemas</t>
+  </si>
+  <si>
+    <t>Se requiere definición. Definición de momento en que se aprueba automáticamente la solicitud.</t>
+  </si>
+  <si>
+    <t>ABC y desactivación de motivos de solicitud</t>
+  </si>
+  <si>
+    <t>ABC y desactivación de conceptos de nómina por país</t>
   </si>
 </sst>
 </file>
@@ -873,12 +897,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -893,8 +923,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -904,11 +935,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1218,11 +1275,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6F6DE5-E41E-471A-AEDE-F42525837133}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1236,7 +1291,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
@@ -1252,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -1269,21 +1324,22 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>46</v>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1297,7 +1353,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1305,13 +1361,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1325,7 +1381,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1333,49 +1389,50 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="A8" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
-        <v>18</v>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1386,134 +1443,148 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>45</v>
+      <c r="B23" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1525,402 +1596,491 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F824BD43-B57F-4E21-B61F-FCFB9295D04B}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="98.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="E21" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="B26" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B27" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="B29" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="B30" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="B32" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="B33" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="B34" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="B35" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="B36" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="B37" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="B38" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="B39" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="B40" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="B41" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:E42">
+    <cfRule type="containsBlanks" dxfId="0" priority="3">
+      <formula>LEN(TRIM(C2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Documentos/Plan de Trabajo ASN.xlsx
+++ b/Documentos/Plan de Trabajo ASN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollo\ASN\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D179D933-E951-4A13-97DE-378FD73F5199}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E7B3D1-EA9A-46EF-84AB-71641F2C631C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{E673171D-683B-4146-8516-79FB6088E25E}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E673171D-683B-4146-8516-79FB6088E25E}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan de Trabajo General" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Comentarios de Emilio" sheetId="2" r:id="rId3"/>
     <sheet name="Base de Datos" sheetId="4" r:id="rId4"/>
     <sheet name="Procesos" sheetId="5" r:id="rId5"/>
+    <sheet name="Definiciones" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="233">
   <si>
     <t>Artefacto</t>
   </si>
@@ -55,9 +56,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Config. Percepción por País</t>
-  </si>
-  <si>
     <t>ABC Conceptos de Nómina, Montos y %</t>
   </si>
   <si>
@@ -137,9 +135,6 @@
   </si>
   <si>
     <t>5.6.</t>
-  </si>
-  <si>
-    <t>Programa de extacción de Estructura Organizacional</t>
   </si>
   <si>
     <t>5.7.</t>
@@ -1016,9 +1011,6 @@
     <t>5.5.3-Visibilidad, Otros</t>
   </si>
   <si>
-    <t>Se requiere definición. Consulta de solicitud (cumple con Visibilidad?</t>
-  </si>
-  <si>
     <t>Se requiere definición. ¿Reporte general cumple con solicitud?</t>
   </si>
   <si>
@@ -1079,24 +1071,15 @@
     <t>* Proceso de activar/desactivar conceptos</t>
   </si>
   <si>
-    <t>* Proceso de activar/desactivar Motivos de Solicitud</t>
-  </si>
-  <si>
     <t>* Definición de Rol Coordinador por Site</t>
   </si>
   <si>
-    <t>* ABC de Conceptos</t>
-  </si>
-  <si>
     <t>* Autorización de Formato de Solicitud</t>
   </si>
   <si>
     <t>* Definir repositorios, estructura de documentación de solicitudes.</t>
   </si>
   <si>
-    <t>* Revisar peroceso manual de carga para replicar la carga masiva de solicitudes.</t>
-  </si>
-  <si>
     <t>* Confirmar el análisis del Flujo de Autorización según documento "Estatus Solicitudes de Nómina.pptx"</t>
   </si>
   <si>
@@ -1128,13 +1111,170 @@
   </si>
   <si>
     <t>* Definición de proceso de cierre, alcance, responsable…</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>* Catálogo de Conceptos en PeopleSoft (Consulta directa o sincronización a tabla local en ASN)
+* Catálogo de Conceptos en ASN
+* ABC de Conceptos en ASN</t>
+  </si>
+  <si>
+    <t>* ABC de Conceptos en ASN</t>
+  </si>
+  <si>
+    <t>Config. Percepción/Deducción por País</t>
+  </si>
+  <si>
+    <t>* ABC de seguridad Concepto/Solicitante
+* ABC de seguridad Concepto/Autorizador
+* ABC de Cadena de Autorización</t>
+  </si>
+  <si>
+    <t>* Catálogo de Motivos en PeopleSoft (Consulta directa o sincronización a tabla local en ASN)
+* Catálogo de Motivos en ASN
+* ABC de Motivos en ASN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Definir Estructura Organizacional en en CCMS (País, Ciudad, Site, Cliente, Programa, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cluster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>* ABC de Flujos de autorización</t>
+  </si>
+  <si>
+    <t>* ¿Configuración de Montos/% es otra dimensión?</t>
+  </si>
+  <si>
+    <t>* ABC Seguridad Roles</t>
+  </si>
+  <si>
+    <t>* Revisar proceso manual de carga para replicar la carga masiva de solicitudes.</t>
+  </si>
+  <si>
+    <t>* Se requiere identificar la interfase actual de archivos de Excel con PeopleSoft para identificar reuso de interfase (y Responsable)</t>
+  </si>
+  <si>
+    <t>* ABC Motivos de Solicitud</t>
+  </si>
+  <si>
+    <t>5.3.6</t>
+  </si>
+  <si>
+    <t>* ¿Las solicitudes pueden ser para los diversos tipos de Nómina?
+* ABC de Nóminas</t>
+  </si>
+  <si>
+    <t>* ABC de Solicitudes
+* Revisar dimensión de captura (Horas/Días)</t>
+  </si>
+  <si>
+    <t>* Se requiere definición de carga de documentos a Solicitud.</t>
+  </si>
+  <si>
+    <t>* Pantalla de Mtto de Solicitudes Capturadas/Por Autorizar</t>
+  </si>
+  <si>
+    <t>* Este proceso es independiente del sistema debido a que no debe intervenir persona alguna para realizar notificaciones.</t>
+  </si>
+  <si>
+    <t>* Formulario de Consulta con filtros
+* Definición de información requerida (tentativamente la infirmación de la Solicitud Capturada)</t>
+  </si>
+  <si>
+    <t>* Definición de Estructura Organizacional por Rol de Consulta (5.6.3)</t>
+  </si>
+  <si>
+    <t>Programa de extracción de Estructura Organizacional</t>
+  </si>
+  <si>
+    <t>* Falta por definir la forma en que se implementará el nuevo Nivel Cluster</t>
+  </si>
+  <si>
+    <t>* ¿Los reportes son a nivel Nómina Cerrada?</t>
+  </si>
+  <si>
+    <t>* Se requiere definir proceso de Cierre de Solicitudes No Autorizadas.</t>
+  </si>
+  <si>
+    <t>* Los esquemas de seguridad involucran Roles, Estructuras Organizacionales, Cadenas de Autorización, Permisos</t>
+  </si>
+  <si>
+    <t>* Definir solicitud</t>
+  </si>
+  <si>
+    <t>* Escenarios</t>
+  </si>
+  <si>
+    <t>¿Se refiere a Reporte de Auditoría?</t>
+  </si>
+  <si>
+    <t>Importante definir las interfases con PeopleSoft para la generación de estos archivos.</t>
+  </si>
+  <si>
+    <t>Falta definición de mapeo de Deducciones contra PeopleSoft</t>
+  </si>
+  <si>
+    <t>¿Qué definición de perfil se tiene?</t>
+  </si>
+  <si>
+    <t>Revisar si se refiere a Roles.</t>
+  </si>
+  <si>
+    <t>Revisar escenarios donde la cadena de autorización cambia.</t>
+  </si>
+  <si>
+    <t>¿Se refiere a aprobaciones automáticas?</t>
+  </si>
+  <si>
+    <t>Definición de Temporizador.</t>
+  </si>
+  <si>
+    <t>Se requiere definición. Consulta de solicitud (cumple con Visibilidad?)</t>
+  </si>
+  <si>
+    <t>* Revisar las transiciones a estatus CA (Cancelado)
+* Definir Log de transacciones para Reporte de Auditoría
+* Revisar comentario inicial</t>
+  </si>
+  <si>
+    <t>Se requiere definición y si se realizará un ABC de Nóminas.</t>
+  </si>
+  <si>
+    <t>Definición de Historial de archivos</t>
+  </si>
+  <si>
+    <t>Estructura Organizacional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1180,6 +1320,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1207,7 +1355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1255,11 +1403,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1586,7 +1751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FF9E40-7922-4EDF-AC18-7A1C3EA56047}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1597,82 +1762,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1683,9 +1848,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6F6DE5-E41E-471A-AEDE-F42525837133}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1698,13 +1865,14 @@
     <col min="7" max="7" width="5.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="21.5703125" style="5"/>
+    <col min="10" max="10" width="48.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="81.5703125" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="21.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C1" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>7</v>
@@ -1722,18 +1890,24 @@
         <v>2</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -1745,18 +1919,23 @@
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D3" s="14">
         <v>1.1000000000000001</v>
@@ -1769,442 +1948,551 @@
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
+      <c r="E4" s="17" t="s">
+        <v>195</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D8" s="14">
         <v>5.0999999999999996</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D9" s="5">
         <v>6</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D10" s="5">
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D11" s="5">
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D12" s="5">
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="I12" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D13" s="5">
         <v>10</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="I13" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D14" s="5">
         <v>11</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D15" s="5">
         <v>12</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D16" s="16">
         <v>13</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="3:12" ht="45" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D17" s="5">
         <v>14</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="I17" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="3:12" ht="60" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D18" s="5">
         <v>15</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D19" s="5">
         <v>16</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D20" s="5">
         <v>17</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>36</v>
+        <v>213</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D21" s="5">
         <v>18</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D22" s="5">
         <v>19</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="3:12" ht="30" x14ac:dyDescent="0.25">
       <c r="C23" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D23" s="5">
         <v>20</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>197</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:J23">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(I2))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K2:L23">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
+      <formula>LEN(TRIM(K2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2220,714 +2508,806 @@
     <col min="2" max="2" width="93.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="C1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>85</v>
+        <v>114</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>85</v>
+        <v>115</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>151</v>
+        <v>117</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>151</v>
+        <v>118</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>81</v>
+      <c r="E13" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>85</v>
+        <v>119</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="D28" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="D30" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D32" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D38" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="1" t="s">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    </row>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="B43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="13" t="s">
+      <c r="B44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="E44" s="13"/>
+      <c r="F44" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="B46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="B47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="B48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="13"/>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
     </row>
   </sheetData>
@@ -2943,9 +3323,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF37CD87-CEDF-44DC-B92D-938F2F5925C5}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2956,7 +3336,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -2967,101 +3347,112 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
         <v>124</v>
       </c>
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
         <v>127</v>
-      </c>
-      <c r="C7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3079,10 +3470,22 @@
   <sheetData>
     <row r="1" spans="1:1" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4570E70-8704-481F-9BF6-656C6D2EF665}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentos/Plan de Trabajo ASN.xlsx
+++ b/Documentos/Plan de Trabajo ASN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollo\ASN\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E7B3D1-EA9A-46EF-84AB-71641F2C631C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7806DE-0665-432A-A889-9C3023A1B91E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E673171D-683B-4146-8516-79FB6088E25E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{E673171D-683B-4146-8516-79FB6088E25E}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan de Trabajo General" sheetId="3" r:id="rId1"/>
@@ -1410,14 +1410,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1850,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6F6DE5-E41E-471A-AEDE-F42525837133}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2482,12 +2475,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:J23">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(I2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:L23">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(K2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2500,7 +2493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F824BD43-B57F-4E21-B61F-FCFB9295D04B}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E18" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3325,7 +3320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF37CD87-CEDF-44DC-B92D-938F2F5925C5}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
